--- a/com.bizvisionsoft.pms/todo.xlsx
+++ b/com.bizvisionsoft.pms/todo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1094B0C1-7B92-4234-B103-EE936232D040}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF978E-6C74-4E4F-88F3-FFD8D0E3951E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7DC058C7-3186-4C11-90B0-CDD968397438}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="285">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,6 +974,18 @@
   </si>
   <si>
     <t>说明，未修改项目的当前阶段，eps上未显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 在项目CBS上显示已分配到的阶段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 屏蔽阶段选择器下的子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 取消阶段预算分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1381,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>200</v>
       </c>
@@ -1756,8 +1768,14 @@
       <c r="H17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>201</v>
       </c>
@@ -1782,8 +1800,14 @@
       <c r="H18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>283</v>
+      </c>
+      <c r="J18" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>202</v>
       </c>
@@ -1808,8 +1832,14 @@
       <c r="H19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>203</v>
       </c>
@@ -1834,8 +1864,11 @@
       <c r="H20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>204</v>
       </c>
@@ -1860,8 +1893,11 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>205</v>
       </c>
@@ -1886,8 +1922,11 @@
       <c r="H22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -1913,7 +1952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -1939,7 +1978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
@@ -1965,7 +2004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -1991,7 +2030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -2017,7 +2056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -2043,7 +2082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -2069,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -2095,7 +2134,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -2121,7 +2160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>

--- a/com.bizvisionsoft.pms/todo.xlsx
+++ b/com.bizvisionsoft.pms/todo.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFF978E-6C74-4E4F-88F3-FFD8D0E3951E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{7DC058C7-3186-4C11-90B0-CDD968397438}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -992,7 +986,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,22 +1054,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38A02DEF-C897-4766-82C5-D57F777B1E7A}" name="表1" displayName="表1" ref="A1:J91" totalsRowShown="0">
-  <autoFilter ref="A1:J91" xr:uid="{D0194028-A580-46B2-87B3-FCBE025A68AA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J91" totalsRowShown="0">
+  <autoFilter ref="A1:J91">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:J91">
     <sortCondition ref="B1:B91"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AED61467-2B29-4593-A8AF-D0C83D0AA2E2}" name="序号"/>
-    <tableColumn id="2" xr3:uid="{25296821-7A9A-4E1C-A9EE-6FCE43EEDDAE}" name="批次"/>
-    <tableColumn id="3" xr3:uid="{C9288FEB-95E9-4809-904D-CCCC654C45B4}" name="模块"/>
-    <tableColumn id="4" xr3:uid="{EABA54AE-E291-4449-B19F-B9D0B04D1ABD}" name="类别"/>
-    <tableColumn id="5" xr3:uid="{D7251514-FF6F-4278-A99A-844A80B01B46}" name="描述"/>
-    <tableColumn id="6" xr3:uid="{F0660783-974C-433F-9263-DCA737644BEE}" name="位置"/>
-    <tableColumn id="7" xr3:uid="{D3E24DEC-6B07-41FD-A350-28531CF11026}" name="目录"/>
-    <tableColumn id="8" xr3:uid="{8C3CF730-1BE7-4D05-A799-5423D1D86BD3}" name="行号"/>
-    <tableColumn id="9" xr3:uid="{19E4A610-937A-4022-814C-0A577F71C6C8}" name="说明"/>
-    <tableColumn id="10" xr3:uid="{C14606CD-9215-45EF-A095-A5B0CC1D0790}" name="日期"/>
+    <tableColumn id="1" name="序号"/>
+    <tableColumn id="2" name="批次"/>
+    <tableColumn id="3" name="模块"/>
+    <tableColumn id="4" name="类别"/>
+    <tableColumn id="5" name="描述"/>
+    <tableColumn id="6" name="位置"/>
+    <tableColumn id="7" name="目录"/>
+    <tableColumn id="8" name="行号"/>
+    <tableColumn id="9" name="说明"/>
+    <tableColumn id="10" name="日期"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,7 +1124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1176,7 +1176,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1370,18 +1370,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B58995-B28E-4493-8FF5-F5060F844BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1457,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>163</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>175</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>270</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>271</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>206</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>208</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>210</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>211</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>212</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>213</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>214</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>215</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>221</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>222</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>226</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>228</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>229</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>230</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>231</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>232</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>233</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>234</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>235</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>236</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>237</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>242</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>248</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>252</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>263</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>267</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>168</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>182</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>171</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>169</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>170</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>172</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>177</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>166</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>159</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>167</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>190</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>194</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>164</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>191</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>217</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>218</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>219</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>220</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>223</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>224</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>227</v>
       </c>
@@ -3536,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F748DD2-E956-4A90-ABDC-55E553806ED3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
